--- a/apps/load_data/2017/12/PLMOVMAE.xlsx
+++ b/apps/load_data/2017/12/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2017\HHY1217\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2017\HHY1217\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05560F53-5F0F-4CCF-915D-6DB0D7B73EEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F1BEBB-FA96-4EB3-B3B9-18D72C852124}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$317</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$261</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12432" uniqueCount="2596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12417" uniqueCount="2594">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6376,9 +6377,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>1047    131967    1319671054     30000     300001081    296920    2969201082    159880    1598802001         0     386002006     40400     404002026    309940    3099402027      3068      30682029      1500      15002086      2500      2500</t>
   </si>
   <si>
@@ -7706,9 +7704,6 @@
   </si>
   <si>
     <t>06567208</t>
-  </si>
-  <si>
-    <t>S/M</t>
   </si>
   <si>
     <t>6501080BIHTE003</t>
@@ -8679,8 +8674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="A289" sqref="A289:XFD289"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z324" sqref="Z324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8705,15 +8700,15 @@
     <col min="18" max="18" width="1.7109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.7109375" customWidth="1"/>
     <col min="20" max="20" width="16.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" customWidth="1"/>
     <col min="22" max="22" width="13.7109375" style="1" customWidth="1"/>
     <col min="23" max="23" width="2.7109375" style="1" customWidth="1"/>
     <col min="24" max="24" width="1.7109375" style="1" customWidth="1"/>
     <col min="25" max="25" width="3.7109375" style="1" customWidth="1"/>
     <col min="26" max="26" width="4.7109375" style="2" customWidth="1"/>
     <col min="27" max="27" width="3.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.7109375" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" customWidth="1"/>
     <col min="30" max="30" width="16.7109375" style="1" customWidth="1"/>
     <col min="31" max="31" width="8.7109375" customWidth="1"/>
     <col min="32" max="32" width="3.7109375" style="1" customWidth="1"/>
@@ -44562,12 +44557,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2117</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>104</v>
       </c>
@@ -44626,10 +44616,10 @@
         <v>110</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2118</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2119</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>113</v>
@@ -44641,7 +44631,7 @@
         <v>149</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>117</v>
@@ -44662,13 +44652,13 @@
         <v>98</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2121</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2122</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2123</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -44703,13 +44693,13 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2124</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2125</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2126</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>97</v>
@@ -44744,12 +44734,7 @@
       <c r="AB210" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2117</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>104</v>
       </c>
@@ -44796,7 +44781,7 @@
         <v>98</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="BB210" s="1">
         <v>12</v>
@@ -44808,10 +44793,10 @@
         <v>110</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2128</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2129</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>113</v>
@@ -44823,13 +44808,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="BS210" s="3">
         <v>36949</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>117</v>
@@ -44853,13 +44838,13 @@
         <v>98</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>1757</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -44894,13 +44879,13 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2134</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2135</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2136</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -44935,12 +44920,7 @@
       <c r="AB211" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2117</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>104</v>
       </c>
@@ -44987,7 +44967,7 @@
         <v>98</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="BB211" s="1">
         <v>12</v>
@@ -45002,10 +44982,10 @@
         <v>110</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2138</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2139</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>113</v>
@@ -45017,13 +44997,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="BS211" s="3">
         <v>36825</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>117</v>
@@ -45047,13 +45027,13 @@
         <v>98</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2142</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2143</v>
-      </c>
-      <c r="CE211" s="1" t="s">
-        <v>2144</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -45088,13 +45068,13 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2145</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2146</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2147</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -45126,12 +45106,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2117</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>104</v>
       </c>
@@ -45181,7 +45156,7 @@
         <v>98</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="BB212" s="1">
         <v>12</v>
@@ -45193,7 +45168,7 @@
         <v>110</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>848</v>
@@ -45205,7 +45180,7 @@
         <v>103</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>117</v>
@@ -45223,13 +45198,13 @@
         <v>98</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>1101</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -45264,13 +45239,13 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2153</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2154</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2155</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -45302,12 +45277,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2117</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>104</v>
       </c>
@@ -45357,7 +45327,7 @@
         <v>98</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="BB213" s="1">
         <v>12</v>
@@ -45369,10 +45339,10 @@
         <v>110</v>
       </c>
       <c r="BH213" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="BI213" s="1" t="s">
         <v>2157</v>
-      </c>
-      <c r="BI213" s="1" t="s">
-        <v>2158</v>
       </c>
       <c r="BM213" s="1" t="s">
         <v>113</v>
@@ -45381,7 +45351,7 @@
         <v>103</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>117</v>
@@ -45402,10 +45372,10 @@
         <v>639</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2160</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2161</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -45440,13 +45410,13 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2162</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2163</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2164</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -45478,12 +45448,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2117</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>104</v>
       </c>
@@ -45533,7 +45498,7 @@
         <v>98</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="BB214" s="1">
         <v>12</v>
@@ -45545,10 +45510,10 @@
         <v>110</v>
       </c>
       <c r="BH214" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="BI214" s="1" t="s">
         <v>2166</v>
-      </c>
-      <c r="BI214" s="1" t="s">
-        <v>2167</v>
       </c>
       <c r="BM214" s="1" t="s">
         <v>113</v>
@@ -45557,7 +45522,7 @@
         <v>103</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>117</v>
@@ -45575,13 +45540,13 @@
         <v>98</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="CD214" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2169</v>
-      </c>
-      <c r="CD214" s="1" t="s">
-        <v>2169</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -45616,13 +45581,13 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2171</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2172</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2173</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -45660,12 +45625,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2117</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>104</v>
       </c>
@@ -45712,7 +45672,7 @@
         <v>98</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="BB215" s="1">
         <v>12</v>
@@ -45721,13 +45681,13 @@
         <v>17</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>110</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>429</v>
@@ -45742,13 +45702,13 @@
         <v>114</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="BS215" s="3">
         <v>35243</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>117</v>
@@ -45766,13 +45726,13 @@
         <v>98</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2179</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2180</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2181</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -45807,13 +45767,13 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2182</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2183</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2184</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -45845,12 +45805,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2117</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>104</v>
       </c>
@@ -45900,7 +45855,7 @@
         <v>98</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="BB216" s="1">
         <v>12</v>
@@ -45912,10 +45867,10 @@
         <v>110</v>
       </c>
       <c r="BH216" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="BI216" s="1" t="s">
         <v>2186</v>
-      </c>
-      <c r="BI216" s="1" t="s">
-        <v>2187</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>113</v>
@@ -45924,7 +45879,7 @@
         <v>103</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>117</v>
@@ -45942,13 +45897,13 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2189</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2190</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2191</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -45983,13 +45938,13 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2192</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2193</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2194</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -46021,12 +45976,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2117</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>104</v>
       </c>
@@ -46076,7 +46026,7 @@
         <v>98</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="BB217" s="1">
         <v>12</v>
@@ -46088,7 +46038,7 @@
         <v>110</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>848</v>
@@ -46103,7 +46053,7 @@
         <v>149</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>117</v>
@@ -46121,13 +46071,13 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2198</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2200</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -46162,13 +46112,13 @@
         <v>629</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2201</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2202</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2203</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -46200,12 +46150,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2117</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>104</v>
       </c>
@@ -46252,7 +46197,7 @@
         <v>98</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="BB218" s="1">
         <v>12</v>
@@ -46261,16 +46206,16 @@
         <v>17</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>110</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2206</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2207</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>113</v>
@@ -46282,13 +46227,13 @@
         <v>200</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="BS218" s="3">
         <v>34307</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>117</v>
@@ -46306,13 +46251,13 @@
         <v>98</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>421</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -46347,13 +46292,13 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2212</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2213</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2214</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -46388,12 +46333,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2117</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>104</v>
       </c>
@@ -46443,7 +46383,7 @@
         <v>98</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="BB219" s="1">
         <v>12</v>
@@ -46458,7 +46398,7 @@
         <v>110</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>172</v>
@@ -46470,7 +46410,7 @@
         <v>103</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>117</v>
@@ -46491,13 +46431,13 @@
         <v>98</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2218</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2219</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2220</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -46532,13 +46472,13 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2221</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2222</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2223</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -46570,12 +46510,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2117</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>104</v>
       </c>
@@ -46622,7 +46557,7 @@
         <v>98</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="BB220" s="1">
         <v>12</v>
@@ -46637,10 +46572,10 @@
         <v>110</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2225</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2226</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>113</v>
@@ -46652,13 +46587,13 @@
         <v>114</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="BS220" s="3">
         <v>35950</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>117</v>
@@ -46676,13 +46611,13 @@
         <v>98</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1597</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -46717,13 +46652,13 @@
         <v>313</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2232</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2233</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -46774,7 +46709,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -46813,13 +46748,13 @@
         <v>110</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>117</v>
@@ -46843,10 +46778,10 @@
         <v>2015</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2237</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2238</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -46881,13 +46816,13 @@
         <v>313</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2239</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2240</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2241</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -46941,7 +46876,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -46980,13 +46915,13 @@
         <v>110</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>117</v>
@@ -47007,13 +46942,13 @@
         <v>98</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2245</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2246</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -47048,13 +46983,13 @@
         <v>313</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2248</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2249</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -47108,7 +47043,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -47147,13 +47082,13 @@
         <v>110</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>117</v>
@@ -47174,13 +47109,13 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2253</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2254</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -47215,13 +47150,13 @@
         <v>313</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2255</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2256</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2257</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -47311,13 +47246,13 @@
         <v>110</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>117</v>
@@ -47338,10 +47273,10 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>188</v>
@@ -47379,13 +47314,13 @@
         <v>313</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2261</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2262</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2263</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -47439,7 +47374,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -47478,13 +47413,13 @@
         <v>110</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>117</v>
@@ -47508,13 +47443,13 @@
         <v>98</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>1117</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -47549,13 +47484,13 @@
         <v>313</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2267</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2268</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2269</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
@@ -47606,7 +47541,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -47645,13 +47580,13 @@
         <v>110</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>117</v>
@@ -47672,13 +47607,13 @@
         <v>98</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="CE226" s="1" t="s">
         <v>2273</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2190</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2274</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -47713,10 +47648,10 @@
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2275</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2276</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>97</v>
@@ -47785,7 +47720,7 @@
         <v>16</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="BX227" s="1">
         <v>0</v>
@@ -47803,7 +47738,7 @@
         <v>214</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -47838,10 +47773,10 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2278</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2279</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>97</v>
@@ -47925,7 +47860,7 @@
         <v>214</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -47960,13 +47895,13 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2280</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2281</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2282</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -48047,7 +47982,7 @@
         <v>98</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="BB229" s="1">
         <v>12</v>
@@ -48059,7 +47994,7 @@
         <v>110</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>113</v>
@@ -48071,7 +48006,7 @@
         <v>149</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>117</v>
@@ -48089,13 +48024,13 @@
         <v>98</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>421</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -48130,13 +48065,13 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2288</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2289</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2290</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
@@ -48214,7 +48149,7 @@
         <v>98</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="BB230" s="1">
         <v>12</v>
@@ -48226,10 +48161,10 @@
         <v>110</v>
       </c>
       <c r="BH230" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="BI230" s="1" t="s">
         <v>2292</v>
-      </c>
-      <c r="BI230" s="1" t="s">
-        <v>2293</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>113</v>
@@ -48241,13 +48176,13 @@
         <v>200</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="BS230" s="3">
         <v>36099</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>117</v>
@@ -48265,13 +48200,13 @@
         <v>98</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2297</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2298</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -48306,13 +48241,13 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2299</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2300</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2301</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
@@ -48390,7 +48325,7 @@
         <v>98</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BB231" s="1">
         <v>12</v>
@@ -48402,10 +48337,10 @@
         <v>110</v>
       </c>
       <c r="BH231" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="BI231" s="1" t="s">
         <v>2303</v>
-      </c>
-      <c r="BI231" s="1" t="s">
-        <v>2304</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>113</v>
@@ -48417,13 +48352,13 @@
         <v>99</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BS231" s="3">
         <v>37735</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>117</v>
@@ -48441,13 +48376,13 @@
         <v>98</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2307</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2308</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2309</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -48482,13 +48417,13 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2311</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2312</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
@@ -48569,7 +48504,7 @@
         <v>98</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BB232" s="1">
         <v>12</v>
@@ -48581,7 +48516,7 @@
         <v>110</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>113</v>
@@ -48590,7 +48525,7 @@
         <v>103</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>117</v>
@@ -48608,13 +48543,13 @@
         <v>98</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>800</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -48649,13 +48584,13 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2318</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2319</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2320</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
@@ -48691,7 +48626,7 @@
         <v>104</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>1693</v>
@@ -48736,7 +48671,7 @@
         <v>98</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="BB233" s="1">
         <v>12</v>
@@ -48748,7 +48683,7 @@
         <v>110</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>113</v>
@@ -48757,7 +48692,7 @@
         <v>103</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>117</v>
@@ -48778,10 +48713,10 @@
         <v>1416</v>
       </c>
       <c r="CD233" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="CE233" s="1" t="s">
         <v>2325</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2326</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -48816,13 +48751,13 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2327</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2328</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2329</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
@@ -48903,7 +48838,7 @@
         <v>98</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BB234" s="1">
         <v>12</v>
@@ -48915,7 +48850,7 @@
         <v>110</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="BI234" s="1" t="s">
         <v>1850</v>
@@ -48927,7 +48862,7 @@
         <v>103</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>117</v>
@@ -48951,7 +48886,7 @@
         <v>867</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -48986,13 +48921,13 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2334</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2335</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2336</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
@@ -49073,7 +49008,7 @@
         <v>98</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BB235" s="1">
         <v>12</v>
@@ -49085,7 +49020,7 @@
         <v>110</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BI235" s="1" t="s">
         <v>848</v>
@@ -49097,7 +49032,7 @@
         <v>103</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>117</v>
@@ -49115,13 +49050,13 @@
         <v>98</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="CD235" s="1" t="s">
         <v>2340</v>
       </c>
-      <c r="CD235" s="1" t="s">
+      <c r="CE235" s="1" t="s">
         <v>2341</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2342</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -49156,13 +49091,13 @@
         <v>313</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2343</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2344</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2345</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
@@ -49204,7 +49139,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -49237,13 +49172,13 @@
         <v>110</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>117</v>
@@ -49261,13 +49196,13 @@
         <v>98</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>295</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -49302,13 +49237,13 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2351</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2352</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2353</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
@@ -49350,7 +49285,7 @@
         <v>42247</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>104</v>
@@ -49404,16 +49339,16 @@
         <v>17</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="BG237" s="1" t="s">
         <v>110</v>
       </c>
       <c r="BH237" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="BI237" s="1" t="s">
         <v>2355</v>
-      </c>
-      <c r="BI237" s="1" t="s">
-        <v>2356</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>113</v>
@@ -49425,13 +49360,13 @@
         <v>200</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BS237" s="3">
         <v>36580</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>117</v>
@@ -49452,7 +49387,7 @@
         <v>98</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>285</v>
@@ -49493,13 +49428,13 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2360</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2361</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2362</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>97</v>
@@ -49589,10 +49524,10 @@
         <v>110</v>
       </c>
       <c r="BH238" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="BI238" s="1" t="s">
         <v>2363</v>
-      </c>
-      <c r="BI238" s="1" t="s">
-        <v>2364</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>113</v>
@@ -49604,13 +49539,13 @@
         <v>114</v>
       </c>
       <c r="BR238" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BS238" s="3">
         <v>37747</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>117</v>
@@ -49634,7 +49569,7 @@
         <v>624</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="239" spans="1:83" x14ac:dyDescent="0.25">
@@ -49669,13 +49604,13 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2368</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="N239" s="1" t="s">
         <v>2369</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2370</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>97</v>
@@ -49765,7 +49700,7 @@
         <v>110</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>113</v>
@@ -49774,7 +49709,7 @@
         <v>103</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>117</v>
@@ -49792,13 +49727,13 @@
         <v>98</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="CD239" s="1" t="s">
         <v>2373</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CE239" s="1" t="s">
         <v>2374</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -49833,13 +49768,13 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="L240" s="1" t="s">
         <v>2376</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="N240" s="1" t="s">
         <v>2377</v>
-      </c>
-      <c r="N240" s="1" t="s">
-        <v>2378</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>97</v>
@@ -49929,7 +49864,7 @@
         <v>110</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BI240" s="1" t="s">
         <v>1031</v>
@@ -49941,7 +49876,7 @@
         <v>103</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>117</v>
@@ -49959,13 +49894,13 @@
         <v>98</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="CD240" s="1" t="s">
         <v>2381</v>
       </c>
-      <c r="CD240" s="1" t="s">
+      <c r="CE240" s="1" t="s">
         <v>2382</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2383</v>
       </c>
     </row>
     <row r="241" spans="1:83" x14ac:dyDescent="0.25">
@@ -50000,13 +49935,13 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="L241" s="1" t="s">
         <v>2384</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="N241" s="1" t="s">
         <v>2385</v>
-      </c>
-      <c r="N241" s="1" t="s">
-        <v>2386</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>97</v>
@@ -50096,10 +50031,10 @@
         <v>110</v>
       </c>
       <c r="BH241" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="BI241" s="1" t="s">
         <v>2387</v>
-      </c>
-      <c r="BI241" s="1" t="s">
-        <v>2388</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>113</v>
@@ -50111,13 +50046,13 @@
         <v>99</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BS241" s="3">
         <v>37334</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>117</v>
@@ -50138,10 +50073,10 @@
         <v>504</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2391</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2392</v>
       </c>
     </row>
     <row r="242" spans="1:83" x14ac:dyDescent="0.25">
@@ -50176,13 +50111,13 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="L242" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>2394</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>2395</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>97</v>
@@ -50272,10 +50207,10 @@
         <v>110</v>
       </c>
       <c r="BH242" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="BI242" s="1" t="s">
         <v>2396</v>
-      </c>
-      <c r="BI242" s="1" t="s">
-        <v>2397</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>113</v>
@@ -50287,13 +50222,13 @@
         <v>99</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BS242" s="3">
         <v>37904</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>117</v>
@@ -50314,10 +50249,10 @@
         <v>867</v>
       </c>
       <c r="CD242" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="CE242" s="1" t="s">
         <v>2400</v>
-      </c>
-      <c r="CE242" s="1" t="s">
-        <v>2401</v>
       </c>
     </row>
     <row r="243" spans="1:83" x14ac:dyDescent="0.25">
@@ -50352,13 +50287,13 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2402</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2403</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2404</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>97</v>
@@ -50445,7 +50380,7 @@
         <v>110</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>113</v>
@@ -50457,13 +50392,13 @@
         <v>114</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="BS243" s="3">
         <v>36111</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>117</v>
@@ -50481,13 +50416,13 @@
         <v>98</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="244" spans="1:83" x14ac:dyDescent="0.25">
@@ -50522,13 +50457,13 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2410</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2411</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2412</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>97</v>
@@ -50618,7 +50553,7 @@
         <v>110</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BI244" s="1" t="s">
         <v>1663</v>
@@ -50633,13 +50568,13 @@
         <v>114</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BS244" s="3">
         <v>37785</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>117</v>
@@ -50657,13 +50592,13 @@
         <v>98</v>
       </c>
       <c r="CC244" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="CD244" s="1" t="s">
         <v>2416</v>
       </c>
-      <c r="CD244" s="1" t="s">
+      <c r="CE244" s="1" t="s">
         <v>2417</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2418</v>
       </c>
     </row>
     <row r="245" spans="1:83" x14ac:dyDescent="0.25">
@@ -50698,13 +50633,13 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2419</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2420</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2421</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>97</v>
@@ -50794,7 +50729,7 @@
         <v>110</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>113</v>
@@ -50803,7 +50738,7 @@
         <v>103</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>117</v>
@@ -50824,10 +50759,10 @@
         <v>1131</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="CE245" s="1" t="s">
         <v>2424</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2425</v>
       </c>
     </row>
     <row r="246" spans="1:83" x14ac:dyDescent="0.25">
@@ -50862,13 +50797,13 @@
         <v>93</v>
       </c>
       <c r="K246" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="L246" s="1" t="s">
         <v>2426</v>
       </c>
-      <c r="L246" s="1" t="s">
+      <c r="N246" s="1" t="s">
         <v>2427</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>2428</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>97</v>
@@ -50946,7 +50881,7 @@
         <v>98</v>
       </c>
       <c r="AZ246" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BB246" s="1">
         <v>12</v>
@@ -50958,7 +50893,7 @@
         <v>110</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>113</v>
@@ -50967,7 +50902,7 @@
         <v>103</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>117</v>
@@ -50985,13 +50920,13 @@
         <v>98</v>
       </c>
       <c r="CC246" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="CD246" s="1" t="s">
         <v>2432</v>
       </c>
-      <c r="CD246" s="1" t="s">
+      <c r="CE246" s="1" t="s">
         <v>2433</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>2434</v>
       </c>
     </row>
     <row r="247" spans="1:83" x14ac:dyDescent="0.25">
@@ -51026,13 +50961,13 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="N247" s="1" t="s">
         <v>2436</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2437</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>97</v>
@@ -51110,7 +51045,7 @@
         <v>98</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BB247" s="1">
         <v>12</v>
@@ -51122,7 +51057,7 @@
         <v>110</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BI247" s="1" t="s">
         <v>1801</v>
@@ -51134,7 +51069,7 @@
         <v>103</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>117</v>
@@ -51152,13 +51087,13 @@
         <v>98</v>
       </c>
       <c r="CC247" s="1" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="CD247" s="1" t="s">
         <v>1003</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="248" spans="1:83" x14ac:dyDescent="0.25">
@@ -51193,13 +51128,13 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2442</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="N248" s="1" t="s">
         <v>2443</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2444</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>97</v>
@@ -51277,7 +51212,7 @@
         <v>98</v>
       </c>
       <c r="AZ248" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BB248" s="1">
         <v>12</v>
@@ -51289,7 +51224,7 @@
         <v>110</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>113</v>
@@ -51298,7 +51233,7 @@
         <v>103</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>117</v>
@@ -51319,10 +51254,10 @@
         <v>1003</v>
       </c>
       <c r="CD248" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="CE248" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2448</v>
       </c>
     </row>
     <row r="249" spans="1:83" x14ac:dyDescent="0.25">
@@ -51357,13 +51292,13 @@
         <v>629</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="N249" s="1" t="s">
         <v>2450</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2451</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>97</v>
@@ -51438,7 +51373,7 @@
         <v>98</v>
       </c>
       <c r="AZ249" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BB249" s="1">
         <v>12</v>
@@ -51453,7 +51388,7 @@
         <v>110</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BI249" s="1" t="s">
         <v>1801</v>
@@ -51468,13 +51403,13 @@
         <v>200</v>
       </c>
       <c r="BR249" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="BS249" s="3">
         <v>37513</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>117</v>
@@ -51492,13 +51427,13 @@
         <v>98</v>
       </c>
       <c r="CC249" s="1" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="CD249" s="1" t="s">
         <v>121</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="250" spans="1:83" x14ac:dyDescent="0.25">
@@ -51527,19 +51462,19 @@
         <v>91</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="L250" s="1" t="s">
         <v>2459</v>
       </c>
-      <c r="L250" s="1" t="s">
+      <c r="N250" s="1" t="s">
         <v>2460</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>2461</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>97</v>
@@ -51623,7 +51558,7 @@
         <v>110</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BI250" s="1" t="s">
         <v>1860</v>
@@ -51638,13 +51573,13 @@
         <v>99</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BS250" s="3">
         <v>41024</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>117</v>
@@ -51653,7 +51588,7 @@
         <v>0</v>
       </c>
       <c r="BZ250" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="CA250" s="1" t="s">
         <v>119</v>
@@ -51662,13 +51597,13 @@
         <v>98</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="CD250" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="CD250" s="1" t="s">
+      <c r="CE250" s="1" t="s">
         <v>2467</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>2468</v>
       </c>
     </row>
     <row r="251" spans="1:83" x14ac:dyDescent="0.25">
@@ -51703,13 +51638,13 @@
         <v>93</v>
       </c>
       <c r="K251" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="L251" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="L251" s="1" t="s">
+      <c r="N251" s="1" t="s">
         <v>2470</v>
-      </c>
-      <c r="N251" s="1" t="s">
-        <v>2471</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>97</v>
@@ -51742,7 +51677,7 @@
         <v>104</v>
       </c>
       <c r="AG251" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="AH251" s="1" t="s">
         <v>1693</v>
@@ -51766,28 +51701,28 @@
         <v>108</v>
       </c>
       <c r="AQ251" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AR251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY251" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ251" s="1" t="s">
         <v>2472</v>
-      </c>
-      <c r="AR251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY251" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ251" s="1" t="s">
-        <v>2473</v>
       </c>
       <c r="BB251" s="1">
         <v>12</v>
@@ -51799,7 +51734,7 @@
         <v>110</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="BI251" s="1" t="s">
         <v>1801</v>
@@ -51814,13 +51749,13 @@
         <v>114</v>
       </c>
       <c r="BR251" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BS251" s="3">
         <v>34808</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>117</v>
@@ -51838,13 +51773,13 @@
         <v>98</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="CD251" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="CD251" s="1" t="s">
+      <c r="CE251" s="1" t="s">
         <v>2478</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>2479</v>
       </c>
     </row>
     <row r="252" spans="1:83" x14ac:dyDescent="0.25">
@@ -51861,7 +51796,7 @@
         <v>87</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>89</v>
@@ -51879,13 +51814,13 @@
         <v>93</v>
       </c>
       <c r="K252" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="L252" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="L252" s="1" t="s">
+      <c r="N252" s="1" t="s">
         <v>2482</v>
-      </c>
-      <c r="N252" s="1" t="s">
-        <v>2483</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>97</v>
@@ -51960,7 +51895,7 @@
         <v>98</v>
       </c>
       <c r="AZ252" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BB252" s="1">
         <v>12</v>
@@ -51972,10 +51907,10 @@
         <v>110</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="BI252" s="1" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>113</v>
@@ -51987,13 +51922,13 @@
         <v>99</v>
       </c>
       <c r="BR252" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BS252" s="3">
         <v>37336</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>117</v>
@@ -52002,7 +51937,7 @@
         <v>0</v>
       </c>
       <c r="BZ252" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="CA252" s="1" t="s">
         <v>119</v>
@@ -52011,13 +51946,13 @@
         <v>98</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="CD252" s="1" t="s">
         <v>2489</v>
       </c>
-      <c r="CD252" s="1" t="s">
+      <c r="CE252" s="1" t="s">
         <v>2490</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>2491</v>
       </c>
     </row>
     <row r="253" spans="1:83" x14ac:dyDescent="0.25">
@@ -52052,13 +51987,13 @@
         <v>93</v>
       </c>
       <c r="K253" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="L253" s="1" t="s">
         <v>2492</v>
       </c>
-      <c r="L253" s="1" t="s">
+      <c r="N253" s="1" t="s">
         <v>2493</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>2494</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>97</v>
@@ -52136,7 +52071,7 @@
         <v>98</v>
       </c>
       <c r="AZ253" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BB253" s="1">
         <v>12</v>
@@ -52148,7 +52083,7 @@
         <v>110</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BI253" s="1" t="s">
         <v>1031</v>
@@ -52160,7 +52095,7 @@
         <v>103</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>117</v>
@@ -52178,13 +52113,13 @@
         <v>98</v>
       </c>
       <c r="CC253" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="CD253" s="1" t="s">
         <v>2498</v>
       </c>
-      <c r="CD253" s="1" t="s">
+      <c r="CE253" s="1" t="s">
         <v>2499</v>
-      </c>
-      <c r="CE253" s="1" t="s">
-        <v>2500</v>
       </c>
     </row>
     <row r="254" spans="1:83" x14ac:dyDescent="0.25">
@@ -52201,7 +52136,7 @@
         <v>87</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>89</v>
@@ -52213,19 +52148,19 @@
         <v>91</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K254" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="L254" s="1" t="s">
         <v>2503</v>
       </c>
-      <c r="L254" s="1" t="s">
+      <c r="N254" s="1" t="s">
         <v>2504</v>
-      </c>
-      <c r="N254" s="1" t="s">
-        <v>2505</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>97</v>
@@ -52312,7 +52247,7 @@
         <v>110</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>113</v>
@@ -52321,7 +52256,7 @@
         <v>103</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>117</v>
@@ -52330,7 +52265,7 @@
         <v>0</v>
       </c>
       <c r="BZ254" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="CA254" s="1" t="s">
         <v>119</v>
@@ -52339,13 +52274,13 @@
         <v>98</v>
       </c>
       <c r="CC254" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="CD254" s="1" t="s">
         <v>2509</v>
       </c>
-      <c r="CD254" s="1" t="s">
+      <c r="CE254" s="1" t="s">
         <v>2510</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>2511</v>
       </c>
     </row>
     <row r="255" spans="1:83" x14ac:dyDescent="0.25">
@@ -52380,13 +52315,13 @@
         <v>313</v>
       </c>
       <c r="K255" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="L255" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="L255" s="1" t="s">
+      <c r="N255" s="1" t="s">
         <v>2513</v>
-      </c>
-      <c r="N255" s="1" t="s">
-        <v>2514</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>97</v>
@@ -52473,7 +52408,7 @@
         <v>110</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>113</v>
@@ -52494,13 +52429,13 @@
         <v>98</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="CD255" s="1" t="s">
         <v>2094</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="256" spans="1:83" x14ac:dyDescent="0.25">
@@ -52538,10 +52473,10 @@
         <v>246</v>
       </c>
       <c r="L256" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="M256" s="1" t="s">
         <v>2518</v>
-      </c>
-      <c r="M256" s="1" t="s">
-        <v>2519</v>
       </c>
       <c r="N256" s="1" t="s">
         <v>248</v>
@@ -52574,7 +52509,7 @@
         <v>42582</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>104</v>
@@ -52625,10 +52560,10 @@
         <v>249</v>
       </c>
       <c r="BH256" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="BI256" s="1" t="s">
         <v>2521</v>
-      </c>
-      <c r="BI256" s="1" t="s">
-        <v>2522</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>113</v>
@@ -52702,16 +52637,16 @@
         <v>93</v>
       </c>
       <c r="K257" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="L257" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="L257" s="1" t="s">
+      <c r="M257" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="N257" s="1" t="s">
         <v>2524</v>
-      </c>
-      <c r="M257" s="1" t="s">
-        <v>2519</v>
-      </c>
-      <c r="N257" s="1" t="s">
-        <v>2525</v>
       </c>
       <c r="Q257" s="3">
         <v>17060</v>
@@ -52747,7 +52682,7 @@
         <v>42628</v>
       </c>
       <c r="AD257" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="AF257" s="1" t="s">
         <v>104</v>
@@ -52798,16 +52733,16 @@
         <v>98</v>
       </c>
       <c r="AZ257" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BD257" s="1" t="s">
         <v>212</v>
       </c>
       <c r="BH257" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="BI257" s="1" t="s">
         <v>2528</v>
-      </c>
-      <c r="BI257" s="1" t="s">
-        <v>2529</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>113</v>
@@ -52816,7 +52751,7 @@
         <v>103</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>117</v>
@@ -52840,7 +52775,7 @@
         <v>121</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="258" spans="1:84" x14ac:dyDescent="0.25">
@@ -52875,16 +52810,16 @@
         <v>93</v>
       </c>
       <c r="K258" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="L258" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="L258" s="1" t="s">
+      <c r="M258" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="N258" s="1" t="s">
         <v>2533</v>
-      </c>
-      <c r="M258" s="1" t="s">
-        <v>2519</v>
-      </c>
-      <c r="N258" s="1" t="s">
-        <v>2534</v>
       </c>
       <c r="Q258" s="3">
         <v>26864</v>
@@ -52914,7 +52849,7 @@
         <v>42735</v>
       </c>
       <c r="AD258" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="AF258" s="1" t="s">
         <v>104</v>
@@ -52965,7 +52900,7 @@
         <v>99</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>113</v>
@@ -52977,13 +52912,13 @@
         <v>200</v>
       </c>
       <c r="BR258" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BS258" s="3">
         <v>102</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>117</v>
@@ -53004,13 +52939,13 @@
         <v>98</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="CD258" s="1" t="s">
         <v>2539</v>
       </c>
-      <c r="CD258" s="1" t="s">
+      <c r="CE258" s="1" t="s">
         <v>2540</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>2541</v>
       </c>
     </row>
     <row r="259" spans="1:84" x14ac:dyDescent="0.25">
@@ -53045,16 +52980,16 @@
         <v>93</v>
       </c>
       <c r="K259" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="L259" s="1" t="s">
         <v>2542</v>
       </c>
-      <c r="L259" s="1" t="s">
+      <c r="M259" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="N259" s="1" t="s">
         <v>2543</v>
-      </c>
-      <c r="M259" s="1" t="s">
-        <v>2519</v>
-      </c>
-      <c r="N259" s="1" t="s">
-        <v>2544</v>
       </c>
       <c r="Q259" s="3">
         <v>17041</v>
@@ -53081,7 +53016,7 @@
         <v>42735</v>
       </c>
       <c r="AD259" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="AF259" s="1" t="s">
         <v>104</v>
@@ -53132,7 +53067,7 @@
         <v>98</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>113</v>
@@ -53141,7 +53076,7 @@
         <v>103</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>117</v>
@@ -53162,13 +53097,13 @@
         <v>98</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="CD259" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="CD259" s="1" t="s">
+      <c r="CE259" s="1" t="s">
         <v>2548</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>2549</v>
       </c>
     </row>
     <row r="260" spans="1:84" x14ac:dyDescent="0.25">
@@ -53203,16 +53138,16 @@
         <v>93</v>
       </c>
       <c r="K260" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="L260" s="1" t="s">
         <v>2550</v>
       </c>
-      <c r="L260" s="1" t="s">
+      <c r="M260" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="N260" s="1" t="s">
         <v>2551</v>
-      </c>
-      <c r="M260" s="1" t="s">
-        <v>2519</v>
-      </c>
-      <c r="N260" s="1" t="s">
-        <v>2552</v>
       </c>
       <c r="Q260" s="3">
         <v>25379</v>
@@ -53242,7 +53177,7 @@
         <v>39800</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>221</v>
@@ -53293,7 +53228,7 @@
         <v>99</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>113</v>
@@ -53305,13 +53240,13 @@
         <v>97</v>
       </c>
       <c r="BR260" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BS260" s="3">
         <v>35915</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>117</v>
@@ -53341,7 +53276,7 @@
         <v>432</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="261" spans="1:84" x14ac:dyDescent="0.25">
@@ -53376,16 +53311,16 @@
         <v>93</v>
       </c>
       <c r="K261" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="L261" s="1" t="s">
         <v>2558</v>
       </c>
-      <c r="L261" s="1" t="s">
+      <c r="M261" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="N261" s="1" t="s">
         <v>2559</v>
-      </c>
-      <c r="M261" s="1" t="s">
-        <v>2519</v>
-      </c>
-      <c r="N261" s="1" t="s">
-        <v>2560</v>
       </c>
       <c r="Q261" s="3">
         <v>23750</v>
@@ -53414,12 +53349,7 @@
       <c r="AA261" s="1">
         <v>0</v>
       </c>
-      <c r="AC261" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD261" s="1" t="s">
-        <v>2561</v>
-      </c>
+      <c r="AC261" s="3"/>
       <c r="AF261" s="1" t="s">
         <v>104</v>
       </c>
@@ -53469,13 +53399,13 @@
         <v>98</v>
       </c>
       <c r="AZ261" s="1" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="BD261" s="1" t="s">
         <v>1105</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>113</v>
@@ -53484,7 +53414,7 @@
         <v>103</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>117</v>
@@ -53508,10 +53438,10 @@
         <v>1044</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="262" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -53666,7 +53596,7 @@
         <v>110</v>
       </c>
       <c r="BH262" s="4" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="BI262" s="4"/>
       <c r="BJ262" s="4"/>
@@ -53862,7 +53792,7 @@
         <v>110</v>
       </c>
       <c r="BH263" s="4" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="BI263" s="4"/>
       <c r="BJ263" s="4"/>
@@ -54067,7 +53997,7 @@
         <v>110</v>
       </c>
       <c r="BH264" s="4" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="BI264" s="4"/>
       <c r="BJ264" s="4"/>
@@ -54272,7 +54202,7 @@
         <v>110</v>
       </c>
       <c r="BH265" s="4" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="BI265" s="4"/>
       <c r="BJ265" s="4"/>
@@ -54468,7 +54398,7 @@
         <v>110</v>
       </c>
       <c r="BH266" s="4" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="BI266" s="4"/>
       <c r="BJ266" s="4"/>
@@ -54664,7 +54594,7 @@
         <v>110</v>
       </c>
       <c r="BH267" s="4" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="BI267" s="4"/>
       <c r="BJ267" s="4"/>
@@ -54862,7 +54792,7 @@
         <v>110</v>
       </c>
       <c r="BH268" s="4" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="BI268" s="4"/>
       <c r="BJ268" s="4"/>
@@ -55056,7 +54986,7 @@
         <v>110</v>
       </c>
       <c r="BH269" s="4" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="BI269" s="4"/>
       <c r="BJ269" s="4"/>
@@ -55261,7 +55191,7 @@
         <v>110</v>
       </c>
       <c r="BH270" s="4" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="BI270" s="4"/>
       <c r="BJ270" s="4"/>
@@ -55471,7 +55401,7 @@
         <v>110</v>
       </c>
       <c r="BH271" s="4" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="BI271" s="4"/>
       <c r="BJ271" s="4"/>
@@ -55677,7 +55607,7 @@
         <v>110</v>
       </c>
       <c r="BH272" s="4" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="BI272" s="4"/>
       <c r="BJ272" s="4"/>
@@ -55882,7 +55812,7 @@
         <v>110</v>
       </c>
       <c r="BH273" s="4" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="BI273" s="4"/>
       <c r="BJ273" s="4"/>
@@ -56077,7 +56007,7 @@
         <v>110</v>
       </c>
       <c r="BH274" s="4" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="BI274" s="4"/>
       <c r="BJ274" s="4"/>
@@ -56272,7 +56202,7 @@
         <v>110</v>
       </c>
       <c r="BH275" s="4" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="BI275" s="4"/>
       <c r="BJ275" s="4"/>
@@ -56464,7 +56394,7 @@
         <v>110</v>
       </c>
       <c r="BH276" s="4" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="BI276" s="4"/>
       <c r="BJ276" s="4"/>
@@ -56542,16 +56472,16 @@
         <v>93</v>
       </c>
       <c r="K277" s="4" t="s">
+        <v>2200</v>
+      </c>
+      <c r="L277" s="4" t="s">
         <v>2201</v>
-      </c>
-      <c r="L277" s="4" t="s">
-        <v>2202</v>
       </c>
       <c r="M277" s="4" t="s">
         <v>99</v>
       </c>
       <c r="N277" s="4" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="O277" s="4" t="s">
         <v>108</v>
@@ -56586,12 +56516,8 @@
         <v>0</v>
       </c>
       <c r="AB277" s="4"/>
-      <c r="AC277" s="5">
-        <v>42309</v>
-      </c>
-      <c r="AD277" s="4" t="s">
-        <v>2117</v>
-      </c>
+      <c r="AC277" s="5"/>
+      <c r="AD277" s="4"/>
       <c r="AF277" s="4" t="s">
         <v>104</v>
       </c>
@@ -56645,7 +56571,7 @@
         <v>98</v>
       </c>
       <c r="AZ277" s="4" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="BA277" s="4" t="s">
         <v>266</v>
@@ -56657,7 +56583,7 @@
         <v>17</v>
       </c>
       <c r="BD277" s="4" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="BE277" s="4"/>
       <c r="BF277" s="4"/>
@@ -56665,7 +56591,7 @@
         <v>110</v>
       </c>
       <c r="BH277" s="4" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="BI277" s="4"/>
       <c r="BJ277" s="4"/>
@@ -56681,13 +56607,13 @@
       <c r="BP277" s="4"/>
       <c r="BQ277" s="4"/>
       <c r="BR277" s="4" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="BS277" s="5">
         <v>34307</v>
       </c>
       <c r="BT277" s="4" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="BU277" s="4" t="s">
         <v>117</v>
@@ -56708,13 +56634,13 @@
         <v>98</v>
       </c>
       <c r="CC277" s="4" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="CD277" s="4" t="s">
         <v>421</v>
       </c>
       <c r="CE277" s="4" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="CF277" s="4"/>
     </row>
@@ -56750,16 +56676,16 @@
         <v>629</v>
       </c>
       <c r="K278" s="4" t="s">
+        <v>2287</v>
+      </c>
+      <c r="L278" s="4" t="s">
         <v>2288</v>
-      </c>
-      <c r="L278" s="4" t="s">
-        <v>2289</v>
       </c>
       <c r="M278" s="4" t="s">
         <v>99</v>
       </c>
       <c r="N278" s="4" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="O278" s="4" t="s">
         <v>108</v>
@@ -56848,7 +56774,7 @@
         <v>98</v>
       </c>
       <c r="AZ278" s="4" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="BA278" s="4" t="s">
         <v>266</v>
@@ -56866,7 +56792,7 @@
         <v>110</v>
       </c>
       <c r="BH278" s="4" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="BI278" s="4"/>
       <c r="BJ278" s="4"/>
@@ -56882,13 +56808,13 @@
       <c r="BP278" s="4"/>
       <c r="BQ278" s="4"/>
       <c r="BR278" s="4" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="BS278" s="5">
         <v>36099</v>
       </c>
       <c r="BT278" s="4" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="BU278" s="4" t="s">
         <v>117</v>
@@ -56909,13 +56835,13 @@
         <v>98</v>
       </c>
       <c r="CC278" s="4" t="s">
+        <v>2295</v>
+      </c>
+      <c r="CD278" s="4" t="s">
         <v>2296</v>
       </c>
-      <c r="CD278" s="4" t="s">
+      <c r="CE278" s="4" t="s">
         <v>2297</v>
-      </c>
-      <c r="CE278" s="4" t="s">
-        <v>2298</v>
       </c>
       <c r="CF278" s="4"/>
     </row>
@@ -56951,16 +56877,16 @@
         <v>629</v>
       </c>
       <c r="K279" s="4" t="s">
+        <v>2298</v>
+      </c>
+      <c r="L279" s="4" t="s">
         <v>2299</v>
-      </c>
-      <c r="L279" s="4" t="s">
-        <v>2300</v>
       </c>
       <c r="M279" s="4" t="s">
         <v>99</v>
       </c>
       <c r="N279" s="4" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="O279" s="4" t="s">
         <v>108</v>
@@ -57049,7 +56975,7 @@
         <v>98</v>
       </c>
       <c r="AZ279" s="4" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BA279" s="4" t="s">
         <v>266</v>
@@ -57067,7 +56993,7 @@
         <v>110</v>
       </c>
       <c r="BH279" s="4" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="BI279" s="4"/>
       <c r="BJ279" s="4"/>
@@ -57083,13 +57009,13 @@
       <c r="BP279" s="4"/>
       <c r="BQ279" s="4"/>
       <c r="BR279" s="4" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BS279" s="5">
         <v>37735</v>
       </c>
       <c r="BT279" s="4" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BU279" s="4" t="s">
         <v>117</v>
@@ -57110,13 +57036,13 @@
         <v>98</v>
       </c>
       <c r="CC279" s="4" t="s">
+        <v>2306</v>
+      </c>
+      <c r="CD279" s="4" t="s">
         <v>2307</v>
       </c>
-      <c r="CD279" s="4" t="s">
+      <c r="CE279" s="4" t="s">
         <v>2308</v>
-      </c>
-      <c r="CE279" s="4" t="s">
-        <v>2309</v>
       </c>
       <c r="CF279" s="4"/>
     </row>
@@ -57152,14 +57078,14 @@
         <v>313</v>
       </c>
       <c r="K280" s="4" t="s">
+        <v>2342</v>
+      </c>
+      <c r="L280" s="4" t="s">
         <v>2343</v>
-      </c>
-      <c r="L280" s="4" t="s">
-        <v>2344</v>
       </c>
       <c r="M280" s="4"/>
       <c r="N280" s="4" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="O280" s="4" t="s">
         <v>108</v>
@@ -57209,7 +57135,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="4" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="AO280" s="4">
         <v>0</v>
@@ -57255,7 +57181,7 @@
         <v>110</v>
       </c>
       <c r="BH280" s="4" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="BI280" s="4"/>
       <c r="BJ280" s="4"/>
@@ -57270,7 +57196,7 @@
       <c r="BQ280" s="4"/>
       <c r="BR280" s="4"/>
       <c r="BT280" s="4" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BU280" s="4" t="s">
         <v>117</v>
@@ -57291,13 +57217,13 @@
         <v>98</v>
       </c>
       <c r="CC280" s="4" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="CD280" s="4" t="s">
         <v>295</v>
       </c>
       <c r="CE280" s="4" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="CF280" s="4"/>
     </row>
@@ -57333,16 +57259,16 @@
         <v>93</v>
       </c>
       <c r="K281" s="4" t="s">
+        <v>2425</v>
+      </c>
+      <c r="L281" s="4" t="s">
         <v>2426</v>
-      </c>
-      <c r="L281" s="4" t="s">
-        <v>2427</v>
       </c>
       <c r="M281" s="4" t="s">
         <v>99</v>
       </c>
       <c r="N281" s="4" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="O281" s="4" t="s">
         <v>108</v>
@@ -57431,7 +57357,7 @@
         <v>98</v>
       </c>
       <c r="AZ281" s="4" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BA281" s="4" t="s">
         <v>266</v>
@@ -57449,7 +57375,7 @@
         <v>110</v>
       </c>
       <c r="BH281" s="4" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="BI281" s="4"/>
       <c r="BJ281" s="4"/>
@@ -57464,7 +57390,7 @@
       <c r="BQ281" s="4"/>
       <c r="BR281" s="4"/>
       <c r="BT281" s="4" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BU281" s="4" t="s">
         <v>117</v>
@@ -57485,13 +57411,13 @@
         <v>98</v>
       </c>
       <c r="CC281" s="4" t="s">
+        <v>2431</v>
+      </c>
+      <c r="CD281" s="4" t="s">
         <v>2432</v>
       </c>
-      <c r="CD281" s="4" t="s">
+      <c r="CE281" s="4" t="s">
         <v>2433</v>
-      </c>
-      <c r="CE281" s="4" t="s">
-        <v>2434</v>
       </c>
       <c r="CF281" s="4"/>
     </row>
@@ -57527,16 +57453,16 @@
         <v>93</v>
       </c>
       <c r="K282" s="4" t="s">
+        <v>2434</v>
+      </c>
+      <c r="L282" s="4" t="s">
         <v>2435</v>
-      </c>
-      <c r="L282" s="4" t="s">
-        <v>2436</v>
       </c>
       <c r="M282" s="4" t="s">
         <v>99</v>
       </c>
       <c r="N282" s="4" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="O282" s="4" t="s">
         <v>108</v>
@@ -57625,7 +57551,7 @@
         <v>98</v>
       </c>
       <c r="AZ282" s="4" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BA282" s="4" t="s">
         <v>266</v>
@@ -57643,7 +57569,7 @@
         <v>110</v>
       </c>
       <c r="BH282" s="4" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="BI282" s="4"/>
       <c r="BJ282" s="4"/>
@@ -57658,7 +57584,7 @@
       <c r="BQ282" s="4"/>
       <c r="BR282" s="4"/>
       <c r="BT282" s="4" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BU282" s="4" t="s">
         <v>117</v>
@@ -57679,13 +57605,13 @@
         <v>98</v>
       </c>
       <c r="CC282" s="4" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="CD282" s="4" t="s">
         <v>1003</v>
       </c>
       <c r="CE282" s="4" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="CF282" s="4"/>
     </row>
@@ -57721,16 +57647,16 @@
         <v>93</v>
       </c>
       <c r="K283" s="4" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L283" s="4" t="s">
         <v>2442</v>
-      </c>
-      <c r="L283" s="4" t="s">
-        <v>2443</v>
       </c>
       <c r="M283" s="4" t="s">
         <v>99</v>
       </c>
       <c r="N283" s="4" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="O283" s="4" t="s">
         <v>108</v>
@@ -57819,7 +57745,7 @@
         <v>98</v>
       </c>
       <c r="AZ283" s="4" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BA283" s="4" t="s">
         <v>266</v>
@@ -57837,7 +57763,7 @@
         <v>110</v>
       </c>
       <c r="BH283" s="4" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="BI283" s="4"/>
       <c r="BJ283" s="4"/>
@@ -57852,7 +57778,7 @@
       <c r="BQ283" s="4"/>
       <c r="BR283" s="4"/>
       <c r="BT283" s="4" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BU283" s="4" t="s">
         <v>117</v>
@@ -57876,10 +57802,10 @@
         <v>1003</v>
       </c>
       <c r="CD283" s="4" t="s">
+        <v>2446</v>
+      </c>
+      <c r="CE283" s="4" t="s">
         <v>2447</v>
-      </c>
-      <c r="CE283" s="4" t="s">
-        <v>2448</v>
       </c>
       <c r="CF283" s="4"/>
     </row>
@@ -57915,16 +57841,16 @@
         <v>93</v>
       </c>
       <c r="K284" s="4" t="s">
+        <v>2448</v>
+      </c>
+      <c r="L284" s="4" t="s">
         <v>2449</v>
-      </c>
-      <c r="L284" s="4" t="s">
-        <v>2450</v>
       </c>
       <c r="M284" s="4" t="s">
         <v>99</v>
       </c>
       <c r="N284" s="4" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="O284" s="4" t="s">
         <v>108</v>
@@ -58011,7 +57937,7 @@
         <v>98</v>
       </c>
       <c r="AZ284" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BA284" s="4" t="s">
         <v>266</v>
@@ -58031,7 +57957,7 @@
         <v>110</v>
       </c>
       <c r="BH284" s="4" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="BI284" s="4"/>
       <c r="BJ284" s="4"/>
@@ -58047,13 +57973,13 @@
       <c r="BP284" s="4"/>
       <c r="BQ284" s="4"/>
       <c r="BR284" s="4" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="BS284" s="5">
         <v>37513</v>
       </c>
       <c r="BT284" s="4" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="BU284" s="4" t="s">
         <v>117</v>
@@ -58074,13 +58000,13 @@
         <v>98</v>
       </c>
       <c r="CC284" s="4" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="CD284" s="4" t="s">
         <v>121</v>
       </c>
       <c r="CE284" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="CF284" s="4"/>
     </row>
@@ -58116,16 +58042,16 @@
         <v>93</v>
       </c>
       <c r="K285" s="4" t="s">
+        <v>2458</v>
+      </c>
+      <c r="L285" s="4" t="s">
         <v>2459</v>
-      </c>
-      <c r="L285" s="4" t="s">
-        <v>2460</v>
       </c>
       <c r="M285" s="4" t="s">
         <v>99</v>
       </c>
       <c r="N285" s="4" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="O285" s="4" t="s">
         <v>108</v>
@@ -58228,7 +58154,7 @@
         <v>110</v>
       </c>
       <c r="BH285" s="4" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="BI285" s="4"/>
       <c r="BJ285" s="4"/>
@@ -58244,13 +58170,13 @@
       <c r="BP285" s="4"/>
       <c r="BQ285" s="4"/>
       <c r="BR285" s="4" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BS285" s="5">
         <v>41024</v>
       </c>
       <c r="BT285" s="4" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BU285" s="4" t="s">
         <v>117</v>
@@ -58271,13 +58197,13 @@
         <v>98</v>
       </c>
       <c r="CC285" s="4" t="s">
+        <v>2465</v>
+      </c>
+      <c r="CD285" s="4" t="s">
         <v>2466</v>
       </c>
-      <c r="CD285" s="4" t="s">
+      <c r="CE285" s="4" t="s">
         <v>2467</v>
-      </c>
-      <c r="CE285" s="4" t="s">
-        <v>2468</v>
       </c>
       <c r="CF285" s="4"/>
     </row>
@@ -58295,7 +58221,7 @@
         <v>87</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="F286" s="4" t="s">
         <v>89</v>
@@ -58313,14 +58239,14 @@
         <v>93</v>
       </c>
       <c r="K286" s="4" t="s">
+        <v>2480</v>
+      </c>
+      <c r="L286" s="4" t="s">
         <v>2481</v>
-      </c>
-      <c r="L286" s="4" t="s">
-        <v>2482</v>
       </c>
       <c r="M286" s="4"/>
       <c r="N286" s="4" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="O286" s="4" t="s">
         <v>108</v>
@@ -58407,7 +58333,7 @@
         <v>98</v>
       </c>
       <c r="AZ286" s="4" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BA286" s="4" t="s">
         <v>266</v>
@@ -58425,7 +58351,7 @@
         <v>110</v>
       </c>
       <c r="BH286" s="4" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="BI286" s="4"/>
       <c r="BJ286" s="4"/>
@@ -58441,13 +58367,13 @@
       <c r="BP286" s="4"/>
       <c r="BQ286" s="4"/>
       <c r="BR286" s="4" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BS286" s="5">
         <v>37336</v>
       </c>
       <c r="BT286" s="4" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BU286" s="4" t="s">
         <v>117</v>
@@ -58459,7 +58385,7 @@
       </c>
       <c r="BY286" s="4"/>
       <c r="BZ286" s="4" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="CA286" s="4" t="s">
         <v>119</v>
@@ -58468,13 +58394,13 @@
         <v>98</v>
       </c>
       <c r="CC286" s="4" t="s">
+        <v>2488</v>
+      </c>
+      <c r="CD286" s="4" t="s">
         <v>2489</v>
       </c>
-      <c r="CD286" s="4" t="s">
+      <c r="CE286" s="4" t="s">
         <v>2490</v>
-      </c>
-      <c r="CE286" s="4" t="s">
-        <v>2491</v>
       </c>
       <c r="CF286" s="4"/>
     </row>
@@ -58510,14 +58436,14 @@
         <v>93</v>
       </c>
       <c r="K287" s="4" t="s">
+        <v>2491</v>
+      </c>
+      <c r="L287" s="4" t="s">
         <v>2492</v>
-      </c>
-      <c r="L287" s="4" t="s">
-        <v>2493</v>
       </c>
       <c r="M287" s="4"/>
       <c r="N287" s="4" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="O287" s="4" t="s">
         <v>108</v>
@@ -58606,7 +58532,7 @@
         <v>98</v>
       </c>
       <c r="AZ287" s="4" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BA287" s="4" t="s">
         <v>266</v>
@@ -58624,7 +58550,7 @@
         <v>110</v>
       </c>
       <c r="BH287" s="4" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="BI287" s="4"/>
       <c r="BJ287" s="4"/>
@@ -58639,7 +58565,7 @@
       <c r="BQ287" s="4"/>
       <c r="BR287" s="4"/>
       <c r="BT287" s="4" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BU287" s="4" t="s">
         <v>117</v>
@@ -58660,13 +58586,13 @@
         <v>98</v>
       </c>
       <c r="CC287" s="4" t="s">
+        <v>2497</v>
+      </c>
+      <c r="CD287" s="4" t="s">
         <v>2498</v>
       </c>
-      <c r="CD287" s="4" t="s">
+      <c r="CE287" s="4" t="s">
         <v>2499</v>
-      </c>
-      <c r="CE287" s="4" t="s">
-        <v>2500</v>
       </c>
       <c r="CF287" s="4"/>
     </row>
@@ -58702,16 +58628,16 @@
         <v>93</v>
       </c>
       <c r="K288" s="4" t="s">
+        <v>2502</v>
+      </c>
+      <c r="L288" s="4" t="s">
         <v>2503</v>
-      </c>
-      <c r="L288" s="4" t="s">
-        <v>2504</v>
       </c>
       <c r="M288" s="4" t="s">
         <v>99</v>
       </c>
       <c r="N288" s="4" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="O288" s="4" t="s">
         <v>108</v>
@@ -58816,7 +58742,7 @@
         <v>110</v>
       </c>
       <c r="BH288" s="4" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="BI288" s="4"/>
       <c r="BJ288" s="4"/>
@@ -58831,7 +58757,7 @@
       <c r="BQ288" s="4"/>
       <c r="BR288" s="4"/>
       <c r="BT288" s="4" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BU288" s="4" t="s">
         <v>117</v>
@@ -58843,7 +58769,7 @@
       </c>
       <c r="BY288" s="4"/>
       <c r="BZ288" s="4" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="CA288" s="4" t="s">
         <v>119</v>
@@ -58852,13 +58778,13 @@
         <v>98</v>
       </c>
       <c r="CC288" s="4" t="s">
+        <v>2508</v>
+      </c>
+      <c r="CD288" s="4" t="s">
         <v>2509</v>
       </c>
-      <c r="CD288" s="4" t="s">
+      <c r="CE288" s="4" t="s">
         <v>2510</v>
-      </c>
-      <c r="CE288" s="4" t="s">
-        <v>2511</v>
       </c>
       <c r="CF288" s="4"/>
     </row>
@@ -58894,22 +58820,22 @@
         <v>93</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="M289" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N289" s="1" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="O289" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P289" s="1" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="Q289" s="3">
         <v>22645</v>
@@ -58933,7 +58859,7 @@
         <v>104</v>
       </c>
       <c r="AG289" s="1" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="AH289" s="1" t="s">
         <v>60</v>
@@ -58984,10 +58910,10 @@
         <v>110</v>
       </c>
       <c r="BH289" s="1" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="BI289" s="1" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="BM289" s="1" t="s">
         <v>113</v>
@@ -58996,13 +58922,13 @@
         <v>99</v>
       </c>
       <c r="BR289" s="1" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="BS289" s="3">
         <v>35209</v>
       </c>
       <c r="BT289" s="1" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="BU289" s="1" t="s">
         <v>117</v>
@@ -59023,10 +58949,10 @@
         <v>1482</v>
       </c>
       <c r="CD289" s="1" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="CE289" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="290" spans="1:84" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -59181,7 +59107,7 @@
         <v>110</v>
       </c>
       <c r="BH290" s="8" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="BI290" s="8"/>
       <c r="BJ290" s="8"/>
@@ -59377,7 +59303,7 @@
         <v>110</v>
       </c>
       <c r="BH291" s="8" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="BI291" s="8"/>
       <c r="BJ291" s="8"/>
@@ -59582,7 +59508,7 @@
         <v>110</v>
       </c>
       <c r="BH292" s="8" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="BI292" s="8"/>
       <c r="BJ292" s="8"/>
@@ -59787,7 +59713,7 @@
         <v>110</v>
       </c>
       <c r="BH293" s="8" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="BI293" s="8"/>
       <c r="BJ293" s="8"/>
@@ -59983,7 +59909,7 @@
         <v>110</v>
       </c>
       <c r="BH294" s="8" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="BI294" s="8"/>
       <c r="BJ294" s="8"/>
@@ -60179,7 +60105,7 @@
         <v>110</v>
       </c>
       <c r="BH295" s="8" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="BI295" s="8"/>
       <c r="BJ295" s="8"/>
@@ -60377,7 +60303,7 @@
         <v>110</v>
       </c>
       <c r="BH296" s="8" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="BI296" s="8"/>
       <c r="BJ296" s="8"/>
@@ -60571,7 +60497,7 @@
         <v>110</v>
       </c>
       <c r="BH297" s="8" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="BI297" s="8"/>
       <c r="BJ297" s="8"/>
@@ -60776,7 +60702,7 @@
         <v>110</v>
       </c>
       <c r="BH298" s="8" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="BI298" s="8"/>
       <c r="BJ298" s="8"/>
@@ -60986,7 +60912,7 @@
         <v>110</v>
       </c>
       <c r="BH299" s="8" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="BI299" s="8"/>
       <c r="BJ299" s="8"/>
@@ -61192,7 +61118,7 @@
         <v>110</v>
       </c>
       <c r="BH300" s="8" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="BI300" s="8"/>
       <c r="BJ300" s="8"/>
@@ -61397,7 +61323,7 @@
         <v>110</v>
       </c>
       <c r="BH301" s="8" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="BI301" s="8"/>
       <c r="BJ301" s="8"/>
@@ -61592,7 +61518,7 @@
         <v>110</v>
       </c>
       <c r="BH302" s="8" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="BI302" s="8"/>
       <c r="BJ302" s="8"/>
@@ -61787,7 +61713,7 @@
         <v>110</v>
       </c>
       <c r="BH303" s="8" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="BI303" s="8"/>
       <c r="BJ303" s="8"/>
@@ -61979,7 +61905,7 @@
         <v>110</v>
       </c>
       <c r="BH304" s="8" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="BI304" s="8"/>
       <c r="BJ304" s="8"/>
@@ -62057,16 +61983,16 @@
         <v>93</v>
       </c>
       <c r="K305" s="8" t="s">
+        <v>2200</v>
+      </c>
+      <c r="L305" s="8" t="s">
         <v>2201</v>
-      </c>
-      <c r="L305" s="8" t="s">
-        <v>2202</v>
       </c>
       <c r="M305" s="8" t="s">
         <v>99</v>
       </c>
       <c r="N305" s="8" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="O305" s="8" t="s">
         <v>108</v>
@@ -62101,12 +62027,8 @@
         <v>0</v>
       </c>
       <c r="AB305" s="8"/>
-      <c r="AC305" s="9">
-        <v>42309</v>
-      </c>
-      <c r="AD305" s="8" t="s">
-        <v>2117</v>
-      </c>
+      <c r="AC305" s="9"/>
+      <c r="AD305" s="8"/>
       <c r="AF305" s="8" t="s">
         <v>104</v>
       </c>
@@ -62160,7 +62082,7 @@
         <v>98</v>
       </c>
       <c r="AZ305" s="8" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="BA305" s="8" t="s">
         <v>266</v>
@@ -62172,7 +62094,7 @@
         <v>17</v>
       </c>
       <c r="BD305" s="8" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="BE305" s="8"/>
       <c r="BF305" s="8"/>
@@ -62180,7 +62102,7 @@
         <v>110</v>
       </c>
       <c r="BH305" s="8" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="BI305" s="8"/>
       <c r="BJ305" s="8"/>
@@ -62196,13 +62118,13 @@
       <c r="BP305" s="8"/>
       <c r="BQ305" s="8"/>
       <c r="BR305" s="8" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="BS305" s="9">
         <v>34307</v>
       </c>
       <c r="BT305" s="8" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="BU305" s="8" t="s">
         <v>117</v>
@@ -62223,13 +62145,13 @@
         <v>98</v>
       </c>
       <c r="CC305" s="8" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="CD305" s="8" t="s">
         <v>421</v>
       </c>
       <c r="CE305" s="8" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="CF305" s="8"/>
     </row>
@@ -62265,16 +62187,16 @@
         <v>629</v>
       </c>
       <c r="K306" s="8" t="s">
+        <v>2287</v>
+      </c>
+      <c r="L306" s="8" t="s">
         <v>2288</v>
-      </c>
-      <c r="L306" s="8" t="s">
-        <v>2289</v>
       </c>
       <c r="M306" s="8" t="s">
         <v>99</v>
       </c>
       <c r="N306" s="8" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="O306" s="8" t="s">
         <v>108</v>
@@ -62363,7 +62285,7 @@
         <v>98</v>
       </c>
       <c r="AZ306" s="8" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="BA306" s="8" t="s">
         <v>266</v>
@@ -62381,7 +62303,7 @@
         <v>110</v>
       </c>
       <c r="BH306" s="8" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="BI306" s="8"/>
       <c r="BJ306" s="8"/>
@@ -62397,13 +62319,13 @@
       <c r="BP306" s="8"/>
       <c r="BQ306" s="8"/>
       <c r="BR306" s="8" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="BS306" s="9">
         <v>36099</v>
       </c>
       <c r="BT306" s="8" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="BU306" s="8" t="s">
         <v>117</v>
@@ -62424,13 +62346,13 @@
         <v>98</v>
       </c>
       <c r="CC306" s="8" t="s">
+        <v>2295</v>
+      </c>
+      <c r="CD306" s="8" t="s">
         <v>2296</v>
       </c>
-      <c r="CD306" s="8" t="s">
+      <c r="CE306" s="8" t="s">
         <v>2297</v>
-      </c>
-      <c r="CE306" s="8" t="s">
-        <v>2298</v>
       </c>
       <c r="CF306" s="8"/>
     </row>
@@ -62466,16 +62388,16 @@
         <v>629</v>
       </c>
       <c r="K307" s="8" t="s">
+        <v>2298</v>
+      </c>
+      <c r="L307" s="8" t="s">
         <v>2299</v>
-      </c>
-      <c r="L307" s="8" t="s">
-        <v>2300</v>
       </c>
       <c r="M307" s="8" t="s">
         <v>99</v>
       </c>
       <c r="N307" s="8" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="O307" s="8" t="s">
         <v>108</v>
@@ -62564,7 +62486,7 @@
         <v>98</v>
       </c>
       <c r="AZ307" s="8" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BA307" s="8" t="s">
         <v>266</v>
@@ -62582,7 +62504,7 @@
         <v>110</v>
       </c>
       <c r="BH307" s="8" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="BI307" s="8"/>
       <c r="BJ307" s="8"/>
@@ -62598,13 +62520,13 @@
       <c r="BP307" s="8"/>
       <c r="BQ307" s="8"/>
       <c r="BR307" s="8" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BS307" s="9">
         <v>37735</v>
       </c>
       <c r="BT307" s="8" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BU307" s="8" t="s">
         <v>117</v>
@@ -62625,13 +62547,13 @@
         <v>98</v>
       </c>
       <c r="CC307" s="8" t="s">
+        <v>2306</v>
+      </c>
+      <c r="CD307" s="8" t="s">
         <v>2307</v>
       </c>
-      <c r="CD307" s="8" t="s">
+      <c r="CE307" s="8" t="s">
         <v>2308</v>
-      </c>
-      <c r="CE307" s="8" t="s">
-        <v>2309</v>
       </c>
       <c r="CF307" s="8"/>
     </row>
@@ -62667,14 +62589,14 @@
         <v>313</v>
       </c>
       <c r="K308" s="8" t="s">
+        <v>2342</v>
+      </c>
+      <c r="L308" s="8" t="s">
         <v>2343</v>
-      </c>
-      <c r="L308" s="8" t="s">
-        <v>2344</v>
       </c>
       <c r="M308" s="8"/>
       <c r="N308" s="8" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="O308" s="8" t="s">
         <v>108</v>
@@ -62724,7 +62646,7 @@
         <v>0</v>
       </c>
       <c r="AN308" s="8" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="AO308" s="8">
         <v>0</v>
@@ -62770,7 +62692,7 @@
         <v>110</v>
       </c>
       <c r="BH308" s="8" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="BI308" s="8"/>
       <c r="BJ308" s="8"/>
@@ -62785,7 +62707,7 @@
       <c r="BQ308" s="8"/>
       <c r="BR308" s="8"/>
       <c r="BT308" s="8" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BU308" s="8" t="s">
         <v>117</v>
@@ -62806,13 +62728,13 @@
         <v>98</v>
       </c>
       <c r="CC308" s="8" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="CD308" s="8" t="s">
         <v>295</v>
       </c>
       <c r="CE308" s="8" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="CF308" s="8"/>
     </row>
@@ -62848,16 +62770,16 @@
         <v>93</v>
       </c>
       <c r="K309" s="8" t="s">
+        <v>2425</v>
+      </c>
+      <c r="L309" s="8" t="s">
         <v>2426</v>
-      </c>
-      <c r="L309" s="8" t="s">
-        <v>2427</v>
       </c>
       <c r="M309" s="8" t="s">
         <v>99</v>
       </c>
       <c r="N309" s="8" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="O309" s="8" t="s">
         <v>108</v>
@@ -62946,7 +62868,7 @@
         <v>98</v>
       </c>
       <c r="AZ309" s="8" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BA309" s="8" t="s">
         <v>266</v>
@@ -62964,7 +62886,7 @@
         <v>110</v>
       </c>
       <c r="BH309" s="8" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="BI309" s="8"/>
       <c r="BJ309" s="8"/>
@@ -62979,7 +62901,7 @@
       <c r="BQ309" s="8"/>
       <c r="BR309" s="8"/>
       <c r="BT309" s="8" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BU309" s="8" t="s">
         <v>117</v>
@@ -63000,13 +62922,13 @@
         <v>98</v>
       </c>
       <c r="CC309" s="8" t="s">
+        <v>2431</v>
+      </c>
+      <c r="CD309" s="8" t="s">
         <v>2432</v>
       </c>
-      <c r="CD309" s="8" t="s">
+      <c r="CE309" s="8" t="s">
         <v>2433</v>
-      </c>
-      <c r="CE309" s="8" t="s">
-        <v>2434</v>
       </c>
       <c r="CF309" s="8"/>
     </row>
@@ -63042,16 +62964,16 @@
         <v>93</v>
       </c>
       <c r="K310" s="8" t="s">
+        <v>2434</v>
+      </c>
+      <c r="L310" s="8" t="s">
         <v>2435</v>
-      </c>
-      <c r="L310" s="8" t="s">
-        <v>2436</v>
       </c>
       <c r="M310" s="8" t="s">
         <v>99</v>
       </c>
       <c r="N310" s="8" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="O310" s="8" t="s">
         <v>108</v>
@@ -63140,7 +63062,7 @@
         <v>98</v>
       </c>
       <c r="AZ310" s="8" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BA310" s="8" t="s">
         <v>266</v>
@@ -63158,7 +63080,7 @@
         <v>110</v>
       </c>
       <c r="BH310" s="8" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="BI310" s="8"/>
       <c r="BJ310" s="8"/>
@@ -63173,7 +63095,7 @@
       <c r="BQ310" s="8"/>
       <c r="BR310" s="8"/>
       <c r="BT310" s="8" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BU310" s="8" t="s">
         <v>117</v>
@@ -63194,13 +63116,13 @@
         <v>98</v>
       </c>
       <c r="CC310" s="8" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="CD310" s="8" t="s">
         <v>1003</v>
       </c>
       <c r="CE310" s="8" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="CF310" s="8"/>
     </row>
@@ -63236,16 +63158,16 @@
         <v>93</v>
       </c>
       <c r="K311" s="8" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L311" s="8" t="s">
         <v>2442</v>
-      </c>
-      <c r="L311" s="8" t="s">
-        <v>2443</v>
       </c>
       <c r="M311" s="8" t="s">
         <v>99</v>
       </c>
       <c r="N311" s="8" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="O311" s="8" t="s">
         <v>108</v>
@@ -63334,7 +63256,7 @@
         <v>98</v>
       </c>
       <c r="AZ311" s="8" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BA311" s="8" t="s">
         <v>266</v>
@@ -63352,7 +63274,7 @@
         <v>110</v>
       </c>
       <c r="BH311" s="8" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="BI311" s="8"/>
       <c r="BJ311" s="8"/>
@@ -63367,7 +63289,7 @@
       <c r="BQ311" s="8"/>
       <c r="BR311" s="8"/>
       <c r="BT311" s="8" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BU311" s="8" t="s">
         <v>117</v>
@@ -63391,10 +63313,10 @@
         <v>1003</v>
       </c>
       <c r="CD311" s="8" t="s">
+        <v>2446</v>
+      </c>
+      <c r="CE311" s="8" t="s">
         <v>2447</v>
-      </c>
-      <c r="CE311" s="8" t="s">
-        <v>2448</v>
       </c>
       <c r="CF311" s="8"/>
     </row>
@@ -63430,16 +63352,16 @@
         <v>93</v>
       </c>
       <c r="K312" s="8" t="s">
+        <v>2448</v>
+      </c>
+      <c r="L312" s="8" t="s">
         <v>2449</v>
-      </c>
-      <c r="L312" s="8" t="s">
-        <v>2450</v>
       </c>
       <c r="M312" s="8" t="s">
         <v>99</v>
       </c>
       <c r="N312" s="8" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="O312" s="8" t="s">
         <v>108</v>
@@ -63526,7 +63448,7 @@
         <v>98</v>
       </c>
       <c r="AZ312" s="8" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BA312" s="8" t="s">
         <v>266</v>
@@ -63546,7 +63468,7 @@
         <v>110</v>
       </c>
       <c r="BH312" s="8" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="BI312" s="8"/>
       <c r="BJ312" s="8"/>
@@ -63562,13 +63484,13 @@
       <c r="BP312" s="8"/>
       <c r="BQ312" s="8"/>
       <c r="BR312" s="8" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="BS312" s="9">
         <v>37513</v>
       </c>
       <c r="BT312" s="8" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="BU312" s="8" t="s">
         <v>117</v>
@@ -63589,13 +63511,13 @@
         <v>98</v>
       </c>
       <c r="CC312" s="8" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="CD312" s="8" t="s">
         <v>121</v>
       </c>
       <c r="CE312" s="8" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="CF312" s="8"/>
     </row>
@@ -63631,16 +63553,16 @@
         <v>93</v>
       </c>
       <c r="K313" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="L313" s="8" t="s">
         <v>2459</v>
-      </c>
-      <c r="L313" s="8" t="s">
-        <v>2460</v>
       </c>
       <c r="M313" s="8" t="s">
         <v>99</v>
       </c>
       <c r="N313" s="8" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="O313" s="8" t="s">
         <v>108</v>
@@ -63743,7 +63665,7 @@
         <v>110</v>
       </c>
       <c r="BH313" s="8" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="BI313" s="8"/>
       <c r="BJ313" s="8"/>
@@ -63759,13 +63681,13 @@
       <c r="BP313" s="8"/>
       <c r="BQ313" s="8"/>
       <c r="BR313" s="8" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BS313" s="9">
         <v>41024</v>
       </c>
       <c r="BT313" s="8" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BU313" s="8" t="s">
         <v>117</v>
@@ -63786,13 +63708,13 @@
         <v>98</v>
       </c>
       <c r="CC313" s="8" t="s">
+        <v>2465</v>
+      </c>
+      <c r="CD313" s="8" t="s">
         <v>2466</v>
       </c>
-      <c r="CD313" s="8" t="s">
+      <c r="CE313" s="8" t="s">
         <v>2467</v>
-      </c>
-      <c r="CE313" s="8" t="s">
-        <v>2468</v>
       </c>
       <c r="CF313" s="8"/>
     </row>
@@ -63810,7 +63732,7 @@
         <v>87</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="F314" s="8" t="s">
         <v>89</v>
@@ -63828,14 +63750,14 @@
         <v>93</v>
       </c>
       <c r="K314" s="8" t="s">
+        <v>2480</v>
+      </c>
+      <c r="L314" s="8" t="s">
         <v>2481</v>
-      </c>
-      <c r="L314" s="8" t="s">
-        <v>2482</v>
       </c>
       <c r="M314" s="8"/>
       <c r="N314" s="8" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="O314" s="8" t="s">
         <v>108</v>
@@ -63922,7 +63844,7 @@
         <v>98</v>
       </c>
       <c r="AZ314" s="8" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BA314" s="8" t="s">
         <v>266</v>
@@ -63940,7 +63862,7 @@
         <v>110</v>
       </c>
       <c r="BH314" s="8" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="BI314" s="8"/>
       <c r="BJ314" s="8"/>
@@ -63956,13 +63878,13 @@
       <c r="BP314" s="8"/>
       <c r="BQ314" s="8"/>
       <c r="BR314" s="8" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BS314" s="9">
         <v>37336</v>
       </c>
       <c r="BT314" s="8" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BU314" s="8" t="s">
         <v>117</v>
@@ -63974,7 +63896,7 @@
       </c>
       <c r="BY314" s="8"/>
       <c r="BZ314" s="8" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="CA314" s="8" t="s">
         <v>119</v>
@@ -63983,13 +63905,13 @@
         <v>98</v>
       </c>
       <c r="CC314" s="8" t="s">
+        <v>2488</v>
+      </c>
+      <c r="CD314" s="8" t="s">
         <v>2489</v>
       </c>
-      <c r="CD314" s="8" t="s">
+      <c r="CE314" s="8" t="s">
         <v>2490</v>
-      </c>
-      <c r="CE314" s="8" t="s">
-        <v>2491</v>
       </c>
       <c r="CF314" s="8"/>
     </row>
@@ -64025,14 +63947,14 @@
         <v>93</v>
       </c>
       <c r="K315" s="8" t="s">
+        <v>2491</v>
+      </c>
+      <c r="L315" s="8" t="s">
         <v>2492</v>
-      </c>
-      <c r="L315" s="8" t="s">
-        <v>2493</v>
       </c>
       <c r="M315" s="8"/>
       <c r="N315" s="8" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="O315" s="8" t="s">
         <v>108</v>
@@ -64121,7 +64043,7 @@
         <v>98</v>
       </c>
       <c r="AZ315" s="8" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BA315" s="8" t="s">
         <v>266</v>
@@ -64139,7 +64061,7 @@
         <v>110</v>
       </c>
       <c r="BH315" s="8" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="BI315" s="8"/>
       <c r="BJ315" s="8"/>
@@ -64154,7 +64076,7 @@
       <c r="BQ315" s="8"/>
       <c r="BR315" s="8"/>
       <c r="BT315" s="8" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BU315" s="8" t="s">
         <v>117</v>
@@ -64175,13 +64097,13 @@
         <v>98</v>
       </c>
       <c r="CC315" s="8" t="s">
+        <v>2497</v>
+      </c>
+      <c r="CD315" s="8" t="s">
         <v>2498</v>
       </c>
-      <c r="CD315" s="8" t="s">
+      <c r="CE315" s="8" t="s">
         <v>2499</v>
-      </c>
-      <c r="CE315" s="8" t="s">
-        <v>2500</v>
       </c>
       <c r="CF315" s="8"/>
     </row>
@@ -64217,16 +64139,16 @@
         <v>93</v>
       </c>
       <c r="K316" s="8" t="s">
+        <v>2502</v>
+      </c>
+      <c r="L316" s="8" t="s">
         <v>2503</v>
-      </c>
-      <c r="L316" s="8" t="s">
-        <v>2504</v>
       </c>
       <c r="M316" s="8" t="s">
         <v>99</v>
       </c>
       <c r="N316" s="8" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="O316" s="8" t="s">
         <v>108</v>
@@ -64331,7 +64253,7 @@
         <v>110</v>
       </c>
       <c r="BH316" s="8" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="BI316" s="8"/>
       <c r="BJ316" s="8"/>
@@ -64346,7 +64268,7 @@
       <c r="BQ316" s="8"/>
       <c r="BR316" s="8"/>
       <c r="BT316" s="8" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BU316" s="8" t="s">
         <v>117</v>
@@ -64358,7 +64280,7 @@
       </c>
       <c r="BY316" s="8"/>
       <c r="BZ316" s="8" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="CA316" s="8" t="s">
         <v>119</v>
@@ -64367,13 +64289,13 @@
         <v>98</v>
       </c>
       <c r="CC316" s="8" t="s">
+        <v>2508</v>
+      </c>
+      <c r="CD316" s="8" t="s">
         <v>2509</v>
       </c>
-      <c r="CD316" s="8" t="s">
+      <c r="CE316" s="8" t="s">
         <v>2510</v>
-      </c>
-      <c r="CE316" s="8" t="s">
-        <v>2511</v>
       </c>
       <c r="CF316" s="8"/>
     </row>
@@ -64409,22 +64331,22 @@
         <v>93</v>
       </c>
       <c r="K317" s="8" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="L317" s="8" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="M317" s="8" t="s">
         <v>99</v>
       </c>
       <c r="N317" s="8" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="O317" s="8" t="s">
         <v>97</v>
       </c>
       <c r="P317" s="8" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="Q317" s="9">
         <v>22645</v>
@@ -64454,7 +64376,7 @@
         <v>104</v>
       </c>
       <c r="AG317" s="8" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="AH317" s="8" t="s">
         <v>60</v>
@@ -64517,10 +64439,10 @@
         <v>110</v>
       </c>
       <c r="BH317" s="8" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="BI317" s="8" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="BJ317" s="8"/>
       <c r="BK317" s="8"/>
@@ -64535,13 +64457,13 @@
       <c r="BP317" s="8"/>
       <c r="BQ317" s="8"/>
       <c r="BR317" s="8" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="BS317" s="9">
         <v>35209</v>
       </c>
       <c r="BT317" s="8" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="BU317" s="8" t="s">
         <v>117</v>
@@ -64565,14 +64487,15 @@
         <v>1482</v>
       </c>
       <c r="CD317" s="8" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="CE317" s="8" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="CF317" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF317" xr:uid="{F9F381B1-103D-4D07-888C-80524CC2CD18}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>